--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,125 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>9300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,75 +797,87 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>8500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -973,26 +1012,32 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,14 +1051,14 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>3000</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1097,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,81 +1108,93 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,35 +1210,37 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1186,49 +1253,61 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,49 +1347,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,35 +1770,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1678,49 +1817,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1899,31 +2072,37 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1981,31 +2166,37 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,32 +2236,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="3">
         <v>1700</v>
       </c>
       <c r="G45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
@@ -2081,54 +2278,66 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="3">
         <v>1700</v>
       </c>
       <c r="G46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2144,18 +2353,18 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2183,34 +2398,40 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>13400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2565,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -2370,11 +2609,17 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>18600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>500</v>
+      </c>
+      <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,16 +2748,18 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2507,63 +2768,69 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2571,90 +2838,108 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="3">
         <v>1500</v>
       </c>
       <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2668,58 +2953,64 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>500</v>
+      </c>
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>100</v>
-      </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,17 +3842,17 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-17700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,37 +4173,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3772,11 +4213,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,25 +4310,31 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>-800</v>
@@ -3884,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3898,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,43 +751,46 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>9300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3100</v>
       </c>
       <c r="K8" s="3">
         <v>3100</v>
       </c>
       <c r="L8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,34 +810,37 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>8500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -841,29 +851,29 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>800</v>
       </c>
       <c r="K10" s="3">
+        <v>800</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
@@ -871,13 +881,16 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,22 +1006,25 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1018,26 +1038,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,11 +1080,11 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>3000</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>-400</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>14000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,38 +1245,39 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1259,55 +1293,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,38 +1843,41 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2078,31 +2165,34 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2172,31 +2265,34 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="F45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="3">
         <v>1700</v>
@@ -2263,14 +2362,14 @@
         <v>1700</v>
       </c>
       <c r="I45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
@@ -2284,13 +2383,16 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2301,7 +2403,7 @@
         <v>1000</v>
       </c>
       <c r="F46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
         <v>1700</v>
@@ -2310,34 +2412,37 @@
         <v>1700</v>
       </c>
       <c r="I46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2359,15 +2464,15 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2404,34 +2512,37 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>13400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2400</v>
       </c>
       <c r="L48" s="3">
         <v>2400</v>
       </c>
       <c r="M48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2688,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3">
         <v>2900</v>
       </c>
       <c r="F52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3400</v>
       </c>
       <c r="I52" s="3">
         <v>3400</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -2615,11 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,46 +2800,49 @@
         <v>3900</v>
       </c>
       <c r="E54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,10 +2890,10 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2774,31 +2905,34 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2809,31 +2943,31 @@
         <v>3600</v>
       </c>
       <c r="F58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,10 +2990,10 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
       </c>
       <c r="G59" s="3">
         <v>1500</v>
@@ -2865,19 +3002,19 @@
         <v>1500</v>
       </c>
       <c r="I59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2886,13 +3023,16 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,43 +3043,46 @@
         <v>4800</v>
       </c>
       <c r="F60" s="3">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="G60" s="3">
         <v>6300</v>
       </c>
       <c r="H60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I60" s="3">
         <v>6900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,34 +3102,37 @@
         <v>500</v>
       </c>
       <c r="I61" s="3">
+        <v>500</v>
+      </c>
+      <c r="J61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1400</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1600</v>
       </c>
       <c r="M61" s="3">
         <v>1600</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2999,21 +3145,21 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3185,43 +3343,46 @@
         <v>5300</v>
       </c>
       <c r="F66" s="3">
-        <v>6800</v>
+        <v>5300</v>
       </c>
       <c r="G66" s="3">
         <v>6800</v>
       </c>
       <c r="H66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3439,43 +3613,46 @@
         <v>-6600</v>
       </c>
       <c r="F72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3627,43 +3813,46 @@
         <v>-1400</v>
       </c>
       <c r="F76" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="G76" s="3">
         <v>-1800</v>
       </c>
       <c r="H76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>300</v>
       </c>
       <c r="O76" s="3">
         <v>300</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,14 +4047,14 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,46 +4335,49 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>10500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4201,14 +4422,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4219,11 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,38 +4543,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,42 +4925,45 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>-400</v>
       </c>
       <c r="J102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,91 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -754,43 +758,46 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>9300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3100</v>
       </c>
       <c r="L8" s="3">
         <v>3100</v>
       </c>
       <c r="M8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,39 +820,42 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>8500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -854,29 +864,29 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>800</v>
       </c>
       <c r="L10" s="3">
+        <v>800</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
@@ -884,13 +894,16 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,25 +1026,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1041,26 +1061,29 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,11 +1106,11 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,49 +1162,52 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>-400</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>14000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,29 +1292,29 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,46 +1345,49 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,49 +1607,52 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,49 +1660,52 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1858,29 +1928,29 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1896,8 +1966,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,49 +1978,52 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,104 +2084,110 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2168,31 +2255,34 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2268,31 +2361,34 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2356,7 +2455,7 @@
         <v>1000</v>
       </c>
       <c r="G45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="3">
         <v>1700</v>
@@ -2365,14 +2464,14 @@
         <v>1700</v>
       </c>
       <c r="J45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
@@ -2386,13 +2485,16 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2406,7 +2508,7 @@
         <v>1000</v>
       </c>
       <c r="G46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="H46" s="3">
         <v>1700</v>
@@ -2415,67 +2517,70 @@
         <v>1700</v>
       </c>
       <c r="J46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2515,34 +2623,37 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>13400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2400</v>
       </c>
       <c r="M48" s="3">
         <v>2400</v>
       </c>
       <c r="N48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,32 +2820,32 @@
         <v>2800</v>
       </c>
       <c r="E52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F52" s="3">
         <v>2900</v>
       </c>
       <c r="G52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3400</v>
       </c>
       <c r="J52" s="3">
         <v>3400</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -2738,11 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E54" s="3">
         <v>3900</v>
       </c>
       <c r="F54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G54" s="3">
         <v>4000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,22 +3011,23 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2908,31 +3039,34 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2946,31 +3080,31 @@
         <v>3600</v>
       </c>
       <c r="G58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2993,10 +3130,10 @@
         <v>1000</v>
       </c>
       <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1500</v>
       </c>
       <c r="H59" s="3">
         <v>1500</v>
@@ -3005,19 +3142,19 @@
         <v>1500</v>
       </c>
       <c r="J59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3026,13 +3163,16 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3046,43 +3186,46 @@
         <v>4800</v>
       </c>
       <c r="G60" s="3">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="H60" s="3">
         <v>6300</v>
       </c>
       <c r="I60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J60" s="3">
         <v>6900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3105,42 +3248,45 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1600</v>
       </c>
       <c r="N61" s="3">
         <v>1600</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -3148,21 +3294,21 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3346,43 +3504,46 @@
         <v>5300</v>
       </c>
       <c r="G66" s="3">
-        <v>6800</v>
+        <v>5300</v>
       </c>
       <c r="H66" s="3">
         <v>6800</v>
       </c>
       <c r="I66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J66" s="3">
         <v>7300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
       <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,13 +3772,16 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="E72" s="3">
         <v>-6600</v>
@@ -3616,43 +3790,46 @@
         <v>-6600</v>
       </c>
       <c r="G72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3816,43 +4002,46 @@
         <v>-1400</v>
       </c>
       <c r="G76" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="H76" s="3">
         <v>-1800</v>
       </c>
       <c r="I76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>300</v>
       </c>
       <c r="P76" s="3">
         <v>300</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,49 +4160,52 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4050,14 +4249,14 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4338,46 +4555,49 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>10500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4425,14 +4646,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4443,11 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4557,30 +4787,30 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-10500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4928,42 +5180,45 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>-400</v>
       </c>
       <c r="K102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -1034,8 +1034,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1158,8 +1158,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1211,8 +1211,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1285,8 +1285,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1338,8 +1338,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1603,8 +1603,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1656,8 +1656,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1921,8 +1921,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1974,8 +1974,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2080,8 +2080,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -4156,8 +4156,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,52 +759,58 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>9300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -805,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -823,34 +836,40 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>8500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,52 +877,58 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,31 +1062,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>-300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1064,26 +1103,32 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,14 +1154,14 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>-400</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,47 +1345,49 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1333,61 +1400,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,13 +1518,19 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1454,46 +1539,52 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,47 +2049,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1969,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2258,31 +2431,37 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,16 +2513,22 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2364,31 +2549,37 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,16 +2631,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>1000</v>
@@ -2458,26 +2655,26 @@
         <v>1000</v>
       </c>
       <c r="H45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="3">
         <v>1700</v>
       </c>
       <c r="K45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
@@ -2488,21 +2685,27 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>1000</v>
@@ -2511,43 +2714,49 @@
         <v>1000</v>
       </c>
       <c r="H46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="3">
         <v>1700</v>
       </c>
       <c r="K46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
+        <v>400</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2572,21 +2781,21 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2599,13 +2808,19 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2626,34 +2841,40 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>13400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,47 +3044,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -2861,11 +3100,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>15000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>500</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>500</v>
+      </c>
+      <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,28 +3271,30 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3042,39 +3303,45 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E58" s="3">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3">
         <v>3600</v>
@@ -3083,34 +3350,34 @@
         <v>3600</v>
       </c>
       <c r="H58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3118,69 +3385,81 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>1000</v>
       </c>
       <c r="G59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1500</v>
       </c>
       <c r="J59" s="3">
         <v>1500</v>
       </c>
       <c r="K59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="E60" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="F60" s="3">
         <v>4800</v>
@@ -3189,43 +3468,49 @@
         <v>4800</v>
       </c>
       <c r="H60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3251,70 +3536,76 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
+        <v>500</v>
+      </c>
+      <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>100</v>
-      </c>
       <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,16 +3798,22 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="E66" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="F66" s="3">
         <v>5300</v>
@@ -3507,43 +3822,49 @@
         <v>5300</v>
       </c>
       <c r="H66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-6600</v>
       </c>
       <c r="G72" s="3">
         <v>-6600</v>
       </c>
       <c r="H72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,16 +4352,22 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F76" s="3">
         <v>-1400</v>
@@ -4005,43 +4376,49 @@
         <v>-1400</v>
       </c>
       <c r="H76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,16 +4620,18 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>100</v>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4252,17 +4649,17 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>10500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-17700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4649,17 +5090,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4667,11 +5108,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,19 +5229,25 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4796,17 +5255,17 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>-800</v>
@@ -4815,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4829,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-10500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>18100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -1211,11 +1211,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-100</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1270,11 +1270,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>400</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1352,11 +1352,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1411,11 +1411,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1706,11 +1706,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1765,11 +1765,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -2060,11 +2060,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2119,11 +2119,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2237,11 +2237,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2822,8 +2822,8 @@
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -4545,11 +4545,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4630,8 +4630,8 @@
       <c r="D83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="E83" s="3">
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4984,8 +4984,8 @@
       <c r="D89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
+      <c r="E89" s="3">
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -5561,8 +5561,8 @@
       <c r="D100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
+      <c r="E100" s="3">
+        <v>500</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5679,8 +5679,8 @@
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,166 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>9300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -842,93 +856,105 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>8500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,37 +1102,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1109,31 +1149,37 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1160,14 +1206,14 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>3000</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1258,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>-400</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1334,64 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,53 +1413,55 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1406,67 +1474,79 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,19 +1604,25 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1545,46 +1631,52 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,19 +1799,25 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1722,57 +1826,63 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1781,46 +1891,52 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,53 +2189,59 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2114,19 +2254,25 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -2135,46 +2281,52 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,19 +2384,25 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -2253,110 +2411,122 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2573,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2410,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2437,31 +2611,37 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
       </c>
       <c r="R41" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
+        <v>300</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,14 +2714,14 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2555,31 +2741,37 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2649,10 +2847,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>1000</v>
@@ -2661,26 +2859,26 @@
         <v>1000</v>
       </c>
       <c r="J45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L45" s="3">
         <v>1700</v>
       </c>
       <c r="M45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
@@ -2691,13 +2889,19 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2705,13 +2909,13 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1000</v>
       </c>
       <c r="H46" s="3">
         <v>1000</v>
@@ -2720,43 +2924,49 @@
         <v>1000</v>
       </c>
       <c r="J46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L46" s="3">
         <v>1700</v>
       </c>
       <c r="M46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>500</v>
+      </c>
+      <c r="V46" s="3">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2787,21 +2997,21 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2814,8 +3024,14 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2825,11 +3041,11 @@
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2847,34 +3063,40 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>13400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>13100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3284,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
@@ -3106,11 +3346,17 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3414,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3177,58 +3429,64 @@
         <v>3300</v>
       </c>
       <c r="E54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>500</v>
       </c>
       <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>500</v>
+      </c>
+      <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3533,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3285,22 +3547,22 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3309,45 +3571,51 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3600</v>
       </c>
       <c r="H58" s="3">
         <v>3600</v>
@@ -3356,34 +3624,34 @@
         <v>3600</v>
       </c>
       <c r="J58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3391,8 +3659,14 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3403,69 +3677,75 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
       </c>
       <c r="I59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
       </c>
       <c r="L59" s="3">
         <v>1500</v>
       </c>
       <c r="M59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4800</v>
       </c>
       <c r="H60" s="3">
         <v>4800</v>
@@ -3474,43 +3754,49 @@
         <v>4800</v>
       </c>
       <c r="J60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3542,76 +3828,82 @@
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
+        <v>500</v>
+      </c>
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
-        <v>100</v>
-      </c>
-      <c r="S61" s="3">
-        <v>100</v>
-      </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,22 +4114,28 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E66" s="3">
         <v>5000</v>
       </c>
       <c r="F66" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="G66" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="H66" s="3">
         <v>5300</v>
@@ -3828,43 +4144,49 @@
         <v>5300</v>
       </c>
       <c r="J66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-6600</v>
       </c>
       <c r="I72" s="3">
         <v>-6600</v>
       </c>
       <c r="J72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-800</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,22 +4724,28 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1400</v>
       </c>
       <c r="H76" s="3">
         <v>-1400</v>
@@ -4382,43 +4754,49 @@
         <v>-1400</v>
       </c>
       <c r="J76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,83 +4854,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -4561,46 +4951,52 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +5018,15 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4655,17 +5053,17 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>10500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-17700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5498,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5096,17 +5538,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5114,11 +5556,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5689,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5261,17 +5721,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>-800</v>
@@ -5280,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5294,8 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6039,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>500</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-10500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>18100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,16 +6169,22 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5692,42 +6196,48 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -3739,7 +3739,7 @@
         <v>4500</v>
       </c>
       <c r="E60" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F60" s="3">
         <v>4300</v>
@@ -5416,10 +5416,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -6051,10 +6051,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,209 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
       </c>
       <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>9300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>3100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>2800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>2500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>2900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -862,34 +882,43 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>8500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>2600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>3800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>2700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>2400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>2800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,64 +926,73 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>-200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1016,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1084,17 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1158,17 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,35 +1178,35 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1155,8 +1214,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1164,17 +1223,26 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1212,17 +1280,17 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>3000</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1238,8 +1306,17 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,99 +1337,111 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>-400</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>14000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>3300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>3900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>4100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>500</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1361,37 +1450,46 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,62 +1513,65 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1480,64 +1581,73 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
@@ -1545,8 +1655,17 @@
       <c r="W21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,73 +1729,91 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1877,17 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1951,165 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2173,17 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2247,17 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2321,17 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,62 +2395,71 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2260,73 +2469,91 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2617,170 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2804,11 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,26 +2832,29 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2617,31 +2877,40 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,32 +2974,41 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2747,31 +3025,40 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,59 +3122,68 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>1000</v>
       </c>
       <c r="L45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
@@ -2895,78 +3191,96 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>1000</v>
       </c>
       <c r="L46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3003,24 +3317,24 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3030,8 +3344,17 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3047,14 +3370,14 @@
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3069,34 +3392,43 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>13400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>13100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3492,17 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3566,17 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3640,91 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3788,91 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>4000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>4900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>18600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>15000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>4100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>3300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>3100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3896,11 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,13 +3924,16 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3553,7 +3945,7 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3565,28 +3957,28 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3597,217 +3989,253 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G58" s="3">
         <v>4100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3600</v>
       </c>
       <c r="K58" s="3">
         <v>3600</v>
       </c>
       <c r="L58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>4800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>5300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>6000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>100</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="E60" s="3">
-        <v>4500</v>
+        <v>5300</v>
       </c>
       <c r="F60" s="3">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="G60" s="3">
         <v>4500</v>
       </c>
       <c r="H60" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="I60" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="J60" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K60" s="3">
         <v>4800</v>
       </c>
       <c r="L60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O60" s="3">
         <v>6300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>6300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>6900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>8700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>5500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -3834,42 +4262,51 @@
         <v>500</v>
       </c>
       <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>500</v>
+      </c>
+      <c r="R61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>2600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>1400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>1600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>1600</v>
       </c>
-      <c r="T61" s="3">
-        <v>100</v>
-      </c>
-      <c r="U61" s="3">
-        <v>100</v>
-      </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
         <v>400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -3877,11 +4314,11 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3889,11 +4326,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3902,17 +4339,17 @@
         <v>8</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3925,8 +4362,17 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4436,17 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4510,17 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4584,91 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="E66" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="F66" s="3">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="G66" s="3">
         <v>5000</v>
       </c>
       <c r="H66" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="I66" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="J66" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K66" s="3">
         <v>5300</v>
       </c>
       <c r="L66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>10500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>8600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
-        <v>100</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4692,11 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4760,17 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4834,17 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4908,17 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4982,91 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-7400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-7200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-6800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-6700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-6400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-3400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-1900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-1300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-800</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +5130,17 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5204,17 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5278,91 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1400</v>
       </c>
       <c r="K76" s="3">
         <v>-1400</v>
       </c>
       <c r="L76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>8100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>6400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5426,170 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5613,11 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5059,20 +5655,20 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -5085,8 +5681,17 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5755,17 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5829,17 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5903,17 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5977,17 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +6051,91 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>10500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-17700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +6159,11 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5544,29 +6206,38 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6301,17 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +6375,17 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5727,30 +6416,30 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -5760,8 +6449,17 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6483,11 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6551,17 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6625,17 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6699,17 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6773,17 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6054,64 +6791,73 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-10500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>-2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>18100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,25 +6921,34 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6202,42 +6957,51 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -1172,8 +1172,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1184,8 +1184,8 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1345,8 +1345,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1419,8 +1419,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1521,8 +1521,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1595,8 +1595,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
         <v>-500</v>
@@ -1608,7 +1608,7 @@
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
@@ -1743,8 +1743,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
@@ -1965,8 +1965,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -2039,8 +2039,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
@@ -2409,8 +2409,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2483,8 +2483,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
@@ -2631,8 +2631,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
@@ -4996,8 +4996,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-13900</v>
       </c>
       <c r="E72" s="3">
         <v>-13300</v>
@@ -5292,8 +5292,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>-5200</v>
       </c>
       <c r="E76" s="3">
         <v>-4900</v>
@@ -5519,8 +5519,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
@@ -6075,10 +6075,10 @@
         <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,146 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
-        <v>500</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
@@ -808,137 +812,143 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>9300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3100</v>
       </c>
       <c r="T8" s="3">
         <v>3100</v>
       </c>
       <c r="U8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V8" s="3">
         <v>3600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="T9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>8500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2600</v>
-      </c>
-      <c r="U9" s="3">
-        <v>3800</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="X9" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -947,7 +957,7 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -956,29 +966,29 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>800</v>
       </c>
       <c r="T10" s="3">
+        <v>800</v>
+      </c>
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
@@ -986,13 +996,16 @@
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,49 +1184,52 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1223,26 +1243,29 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-200</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,14 +1275,14 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1289,11 +1312,11 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>3000</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,82 +1366,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>-400</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>14000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,73 +1453,76 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,65 +1549,66 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1590,35 +1624,38 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
@@ -1626,46 +1663,49 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,65 +2471,68 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>400</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2478,82 +2548,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2850,14 +2937,14 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2886,31 +2973,34 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,13 +3073,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2998,7 +3091,7 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3007,11 +3100,11 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -3034,31 +3127,34 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3146,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3158,7 +3257,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>1000</v>
@@ -3170,7 +3269,7 @@
         <v>1000</v>
       </c>
       <c r="O45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="P45" s="3">
         <v>1700</v>
@@ -3179,14 +3278,14 @@
         <v>1700</v>
       </c>
       <c r="R45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
@@ -3200,39 +3299,42 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1000</v>
       </c>
       <c r="L46" s="3">
         <v>1000</v>
@@ -3244,7 +3346,7 @@
         <v>1000</v>
       </c>
       <c r="O46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="P46" s="3">
         <v>1700</v>
@@ -3253,34 +3355,37 @@
         <v>1700</v>
       </c>
       <c r="R46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3326,18 +3431,18 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3353,34 +3458,37 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3401,34 +3509,37 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>13400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2400</v>
       </c>
       <c r="U48" s="3">
         <v>2400</v>
       </c>
       <c r="V48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W48" s="3">
         <v>2500</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3660,54 +3780,54 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>3000</v>
       </c>
       <c r="I52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J52" s="3">
         <v>3100</v>
       </c>
       <c r="K52" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="L52" s="3">
         <v>2800</v>
       </c>
       <c r="M52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="N52" s="3">
         <v>2900</v>
       </c>
       <c r="O52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>3400</v>
       </c>
       <c r="R52" s="3">
         <v>3400</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
@@ -3720,11 +3840,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3900</v>
       </c>
       <c r="M54" s="3">
         <v>3900</v>
       </c>
       <c r="N54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O54" s="3">
         <v>4000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,16 +4057,17 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3954,19 +4085,19 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3978,57 +4109,60 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>4700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4600</v>
       </c>
       <c r="F58" s="3">
         <v>4600</v>
       </c>
       <c r="G58" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="H58" s="3">
         <v>4100</v>
       </c>
       <c r="I58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3600</v>
       </c>
       <c r="L58" s="3">
         <v>3600</v>
@@ -4040,31 +4174,31 @@
         <v>3600</v>
       </c>
       <c r="O58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>100</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
@@ -4075,22 +4209,25 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -4102,7 +4239,7 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
@@ -4111,10 +4248,10 @@
         <v>1000</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1500</v>
       </c>
       <c r="P59" s="3">
         <v>1500</v>
@@ -4123,19 +4260,19 @@
         <v>1500</v>
       </c>
       <c r="R59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
-        <v>100</v>
-      </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4144,39 +4281,42 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4500</v>
       </c>
       <c r="H60" s="3">
         <v>4500</v>
       </c>
       <c r="I60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4800</v>
       </c>
       <c r="L60" s="3">
         <v>4800</v>
@@ -4188,43 +4328,46 @@
         <v>4800</v>
       </c>
       <c r="O60" s="3">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="P60" s="3">
         <v>6300</v>
       </c>
       <c r="Q60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R60" s="3">
         <v>6900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
-        <v>100</v>
-      </c>
       <c r="W60" s="3">
         <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4238,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -4271,34 +4414,37 @@
         <v>500</v>
       </c>
       <c r="R61" s="3">
+        <v>500</v>
+      </c>
+      <c r="S61" s="3">
         <v>1800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1400</v>
-      </c>
-      <c r="U61" s="3">
-        <v>1600</v>
       </c>
       <c r="V61" s="3">
         <v>1600</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
       </c>
       <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="3">
         <v>400</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4314,11 +4460,11 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -4326,11 +4472,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -4338,21 +4484,21 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,34 +4748,37 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5000</v>
       </c>
       <c r="H66" s="3">
         <v>5000</v>
       </c>
       <c r="I66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>5300</v>
       </c>
       <c r="L66" s="3">
         <v>5300</v>
@@ -4632,43 +4790,46 @@
         <v>5300</v>
       </c>
       <c r="O66" s="3">
-        <v>6800</v>
+        <v>5300</v>
       </c>
       <c r="P66" s="3">
         <v>6800</v>
       </c>
       <c r="Q66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
-        <v>100</v>
-      </c>
       <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,37 +5162,40 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-6600</v>
       </c>
       <c r="M72" s="3">
         <v>-6600</v>
@@ -5030,43 +5204,46 @@
         <v>-6600</v>
       </c>
       <c r="O72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-7000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-800</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,34 +5470,37 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1500</v>
       </c>
       <c r="J76" s="3">
         <v>-1500</v>
       </c>
       <c r="K76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="L76" s="3">
         <v>-1400</v>
@@ -5326,43 +5512,46 @@
         <v>-1400</v>
       </c>
       <c r="O76" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="P76" s="3">
         <v>-1800</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>300</v>
       </c>
       <c r="X76" s="3">
         <v>300</v>
       </c>
       <c r="Y76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5628,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5664,14 +5863,14 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>3000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6274,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6072,23 +6289,23 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -6096,46 +6313,49 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>10500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6215,14 +6436,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6233,11 +6454,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6425,24 +6655,24 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,35 +7025,38 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6818,46 +7064,49 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-10500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,28 +7179,31 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6966,42 +7218,45 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>-400</v>
       </c>
       <c r="S102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,32 +785,32 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
@@ -815,43 +818,46 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>9300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3100</v>
       </c>
       <c r="U8" s="3">
         <v>3100</v>
       </c>
       <c r="V8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W8" s="3">
         <v>3600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,25 +868,25 @@
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -901,34 +907,37 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>8500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,22 +945,22 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -960,7 +969,7 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -969,29 +978,29 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>800</v>
       </c>
       <c r="U10" s="3">
+        <v>800</v>
+      </c>
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
@@ -999,13 +1008,16 @@
         <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,52 +1203,55 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1246,31 +1265,34 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1278,14 +1300,14 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1315,11 +1337,11 @@
         <v>100</v>
       </c>
       <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
         <v>3000</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
@@ -1341,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>-400</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>14000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,38 +1582,39 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1589,29 +1622,29 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1627,38 +1660,41 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1666,46 +1702,49 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,38 +2540,41 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2513,29 +2582,29 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2551,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2940,14 +3026,14 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2976,31 +3062,34 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3085,7 +3177,7 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -3094,7 +3186,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3103,11 +3195,11 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -3130,31 +3222,34 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3248,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3260,7 +3358,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>1000</v>
@@ -3272,7 +3370,7 @@
         <v>1000</v>
       </c>
       <c r="P45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="Q45" s="3">
         <v>1700</v>
@@ -3281,14 +3379,14 @@
         <v>1700</v>
       </c>
       <c r="S45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
@@ -3302,42 +3400,45 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1000</v>
       </c>
       <c r="M46" s="3">
         <v>1000</v>
@@ -3349,7 +3450,7 @@
         <v>1000</v>
       </c>
       <c r="P46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="Q46" s="3">
         <v>1700</v>
@@ -3358,34 +3459,37 @@
         <v>1700</v>
       </c>
       <c r="S46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3434,18 +3538,18 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3461,8 +3565,11 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3487,11 +3594,11 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3512,34 +3619,37 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>13400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2400</v>
       </c>
       <c r="V48" s="3">
         <v>2400</v>
       </c>
       <c r="W48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X48" s="3">
         <v>2500</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3783,54 +3902,54 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>3000</v>
       </c>
       <c r="J52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K52" s="3">
         <v>3100</v>
       </c>
       <c r="L52" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="M52" s="3">
         <v>2800</v>
       </c>
       <c r="N52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="O52" s="3">
         <v>2900</v>
       </c>
       <c r="P52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>3400</v>
       </c>
       <c r="S52" s="3">
         <v>3400</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
@@ -3843,11 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
-        <v>300</v>
-      </c>
       <c r="H54" s="3">
+        <v>500</v>
+      </c>
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3900</v>
       </c>
       <c r="N54" s="3">
         <v>3900</v>
       </c>
       <c r="O54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P54" s="3">
         <v>4000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,19 +4187,20 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -4088,19 +4218,19 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4112,60 +4242,63 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4600</v>
       </c>
       <c r="G58" s="3">
         <v>4600</v>
       </c>
       <c r="H58" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="I58" s="3">
         <v>4100</v>
       </c>
       <c r="J58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3600</v>
       </c>
       <c r="M58" s="3">
         <v>3600</v>
@@ -4177,31 +4310,31 @@
         <v>3600</v>
       </c>
       <c r="P58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
+      <c r="X58" s="3">
+        <v>100</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
@@ -4212,25 +4345,28 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
-        <v>600</v>
-      </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -4242,7 +4378,7 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
@@ -4251,10 +4387,10 @@
         <v>1000</v>
       </c>
       <c r="O59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1500</v>
       </c>
       <c r="Q59" s="3">
         <v>1500</v>
@@ -4263,19 +4399,19 @@
         <v>1500</v>
       </c>
       <c r="S59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4284,42 +4420,45 @@
         <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
-        <v>5500</v>
-      </c>
       <c r="H60" s="3">
-        <v>4500</v>
+        <v>7100</v>
       </c>
       <c r="I60" s="3">
         <v>4500</v>
       </c>
       <c r="J60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4800</v>
       </c>
       <c r="M60" s="3">
         <v>4800</v>
@@ -4331,43 +4470,46 @@
         <v>4800</v>
       </c>
       <c r="P60" s="3">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="Q60" s="3">
         <v>6300</v>
       </c>
       <c r="R60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
       <c r="X60" s="3">
         <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z60" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4384,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
@@ -4417,57 +4559,60 @@
         <v>500</v>
       </c>
       <c r="S61" s="3">
+        <v>500</v>
+      </c>
+      <c r="T61" s="3">
         <v>1800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1400</v>
-      </c>
-      <c r="V61" s="3">
-        <v>1600</v>
       </c>
       <c r="W61" s="3">
         <v>1600</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
       </c>
       <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="3">
         <v>400</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -4475,11 +4620,11 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -4487,21 +4632,21 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4520,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,37 +4905,40 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
-        <v>5500</v>
-      </c>
       <c r="H66" s="3">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="I66" s="3">
         <v>5000</v>
       </c>
       <c r="J66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>5300</v>
       </c>
       <c r="M66" s="3">
         <v>5300</v>
@@ -4793,43 +4950,46 @@
         <v>5300</v>
       </c>
       <c r="P66" s="3">
-        <v>6800</v>
+        <v>5300</v>
       </c>
       <c r="Q66" s="3">
         <v>6800</v>
       </c>
       <c r="R66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3">
-        <v>100</v>
-      </c>
       <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA66" s="3">
         <v>500</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,40 +5335,43 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13300</v>
       </c>
-      <c r="G72" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-6600</v>
       </c>
       <c r="N72" s="3">
         <v>-6600</v>
@@ -5207,43 +5380,46 @@
         <v>-6600</v>
       </c>
       <c r="P72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-800</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,37 +5655,40 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="G76" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H76" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1500</v>
       </c>
       <c r="K76" s="3">
         <v>-1500</v>
       </c>
       <c r="L76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="M76" s="3">
         <v>-1400</v>
@@ -5515,43 +5700,46 @@
         <v>-1400</v>
       </c>
       <c r="P76" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="Q76" s="3">
         <v>-1800</v>
       </c>
       <c r="R76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>300</v>
       </c>
       <c r="Y76" s="3">
         <v>300</v>
       </c>
       <c r="Z76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5830,13 +6028,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5866,14 +6064,14 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>3000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -5892,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,13 +6490,16 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-6600</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6292,23 +6508,23 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -6316,46 +6532,49 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>10500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-200</v>
       </c>
       <c r="Z89" s="3">
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6439,14 +6659,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6457,11 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6658,24 +6887,24 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6691,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,38 +7270,41 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>6200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7067,46 +7312,49 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-10500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>18100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,31 +7430,34 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7221,42 +7472,45 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>-400</v>
       </c>
       <c r="T102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,218 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
       </c>
       <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>9300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-      <c r="AB8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
@@ -871,16 +885,16 @@
         <v>400</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -892,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -910,34 +924,40 @@
         <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>8500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -948,76 +968,82 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-200</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
       <c r="Z10" s="3">
         <v>100</v>
       </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>-100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,58 +1240,64 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1268,52 +1308,58 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-200</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3">
-        <v>100</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1340,14 +1386,14 @@
         <v>100</v>
       </c>
       <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
         <v>3000</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1445,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,159 +1456,171 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="W17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>14000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>3900</v>
-      </c>
-      <c r="W17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="X17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>500</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-5300</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-400</v>
+        <v>-5300</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,74 +1649,76 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1663,88 +1731,100 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-600</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>400</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="V21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>900</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>900</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,40 +1903,46 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-600</v>
       </c>
       <c r="G23" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1865,46 +1951,52 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2075,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,40 +2161,46 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-600</v>
       </c>
       <c r="G26" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -2105,78 +2209,84 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-5100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-600</v>
       </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -2185,46 +2295,52 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-5100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,74 +2677,80 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2623,40 +2763,46 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-600</v>
       </c>
       <c r="G33" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2665,46 +2811,52 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-5100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,40 +2935,46 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-600</v>
       </c>
       <c r="G35" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2825,131 +2983,143 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-5100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,13 +3180,15 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -3026,20 +3200,20 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3065,31 +3239,37 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>400</v>
       </c>
       <c r="Y41" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Z41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,44 +3348,50 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -3225,31 +3411,37 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3520,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3349,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3361,10 +3559,10 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>1000</v>
@@ -3373,26 +3571,26 @@
         <v>1000</v>
       </c>
       <c r="Q45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="R45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="S45" s="3">
         <v>1700</v>
       </c>
       <c r="T45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
@@ -3403,48 +3601,54 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
-        <v>400</v>
-      </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
       </c>
       <c r="O46" s="3">
         <v>1000</v>
@@ -3453,43 +3657,49 @@
         <v>1000</v>
       </c>
       <c r="Q46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="R46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="S46" s="3">
         <v>1700</v>
       </c>
       <c r="T46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>500</v>
       </c>
       <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3541,21 +3751,21 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3568,8 +3778,14 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3597,14 +3813,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3622,34 +3838,40 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
         <v>13400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>13100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2500</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3950,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4122,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -3905,57 +4145,57 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3400</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
       <c r="Y52" s="3">
         <v>0</v>
       </c>
@@ -3965,11 +4205,17 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4294,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
-        <v>400</v>
-      </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3400</v>
       </c>
       <c r="K54" s="3">
         <v>3300</v>
       </c>
       <c r="L54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N54" s="3">
         <v>3500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>18600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>15000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3100</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>500</v>
       </c>
       <c r="AA54" s="3">
         <v>400</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,25 +4448,27 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -4221,22 +4483,22 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -4245,31 +4507,37 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,34 +4545,34 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3600</v>
       </c>
       <c r="O58" s="3">
         <v>3600</v>
@@ -4313,34 +4581,34 @@
         <v>3600</v>
       </c>
       <c r="Q58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>6000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
+      <c r="Z58" s="3">
+        <v>100</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4348,8 +4616,14 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,22 +4631,22 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -4381,90 +4655,96 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>1000</v>
       </c>
       <c r="P59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1500</v>
       </c>
       <c r="S59" s="3">
         <v>1500</v>
       </c>
       <c r="T59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4300</v>
       </c>
       <c r="L60" s="3">
         <v>4500</v>
       </c>
       <c r="M60" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="N60" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="O60" s="3">
         <v>4800</v>
@@ -4473,43 +4753,49 @@
         <v>4800</v>
       </c>
       <c r="Q60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S60" s="3">
         <v>6300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>100</v>
-      </c>
       <c r="Z60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="3">
         <v>100</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4529,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
@@ -4562,97 +4848,103 @@
         <v>500</v>
       </c>
       <c r="T61" s="3">
+        <v>500</v>
+      </c>
+      <c r="U61" s="3">
+        <v>500</v>
+      </c>
+      <c r="V61" s="3">
         <v>1800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1600</v>
       </c>
-      <c r="Y61" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>100</v>
-      </c>
       <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC61" s="3">
         <v>400</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4668,8 +4960,14 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,43 +5218,49 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>4800</v>
       </c>
       <c r="L66" s="3">
         <v>5000</v>
       </c>
       <c r="M66" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="N66" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="O66" s="3">
         <v>5300</v>
@@ -4953,43 +5269,49 @@
         <v>5300</v>
       </c>
       <c r="Q66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC66" s="3">
         <v>500</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-14100</v>
+        <v>-14300</v>
       </c>
       <c r="E72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-13600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-6600</v>
       </c>
       <c r="P72" s="3">
         <v>-6600</v>
       </c>
       <c r="Q72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-800</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,43 +6024,49 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-6600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1400</v>
       </c>
       <c r="O76" s="3">
         <v>-1400</v>
@@ -5703,43 +6075,49 @@
         <v>-1400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
-      <c r="AA76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,125 +6196,137 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-600</v>
       </c>
       <c r="G81" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -5945,46 +6335,52 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-5100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,16 +6409,18 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -6031,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -6040,7 +6438,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -6067,17 +6465,17 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>3000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
@@ -6093,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>10500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-17700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7043,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6662,17 +7104,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6680,11 +7122,17 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7297,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6890,17 +7350,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V94" s="3">
         <v>-800</v>
@@ -6909,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6923,8 +7383,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7759,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F100" s="3">
         <v>6200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>18100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,37 +7931,43 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7475,42 +7979,48 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GXXM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>GXXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,139 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="3">
         <v>600</v>
@@ -802,32 +806,32 @@
         <v>600</v>
       </c>
       <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
@@ -835,43 +839,46 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>9300</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3100</v>
       </c>
       <c r="X8" s="3">
         <v>3100</v>
       </c>
       <c r="Y8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>3600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>200</v>
       </c>
-      <c r="AD8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -879,7 +886,7 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -891,25 +898,25 @@
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -930,42 +937,45 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>8500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -974,22 +984,22 @@
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -998,7 +1008,7 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -1007,29 +1017,29 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>800</v>
       </c>
       <c r="X10" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
@@ -1037,13 +1047,16 @@
         <v>100</v>
       </c>
       <c r="AC10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD10" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,13 +1263,16 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1260,47 +1280,47 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1314,26 +1334,29 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-200</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,11 +1366,11 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1355,14 +1378,14 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1392,11 +1415,11 @@
         <v>100</v>
       </c>
       <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
         <v>3000</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>-400</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>14000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,38 +1694,38 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1699,29 +1733,29 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1737,47 +1771,50 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
@@ -1785,46 +1822,49 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
       <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,94 +1949,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,38 +2762,38 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2731,29 +2801,29 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2769,94 +2839,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,16 +3268,17 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -3206,17 +3293,17 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -3245,31 +3332,34 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,25 +3444,28 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -3381,7 +3474,7 @@
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -3390,11 +3483,11 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -3417,31 +3510,34 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="3">
         <v>100</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3553,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3565,7 +3664,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>1000</v>
@@ -3577,7 +3676,7 @@
         <v>1000</v>
       </c>
       <c r="S45" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="T45" s="3">
         <v>1700</v>
@@ -3586,14 +3685,14 @@
         <v>1700</v>
       </c>
       <c r="V45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
-      <c r="X45" s="3">
-        <v>100</v>
-      </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
@@ -3607,51 +3706,54 @@
         <v>100</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1000</v>
       </c>
       <c r="P46" s="3">
         <v>1000</v>
@@ -3663,7 +3765,7 @@
         <v>1000</v>
       </c>
       <c r="S46" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="T46" s="3">
         <v>1700</v>
@@ -3672,34 +3774,37 @@
         <v>1700</v>
       </c>
       <c r="V46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W46" s="3">
         <v>1800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3757,18 +3862,18 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>500</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3784,8 +3889,11 @@
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3819,11 +3927,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3844,34 +3952,37 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>13400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13100</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2400</v>
       </c>
       <c r="Y48" s="3">
         <v>2400</v>
       </c>
       <c r="Z48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA48" s="3">
         <v>2500</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,16 +4245,19 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -4151,54 +4271,54 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>3000</v>
       </c>
       <c r="M52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N52" s="3">
         <v>3100</v>
       </c>
       <c r="O52" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="P52" s="3">
         <v>2800</v>
       </c>
       <c r="Q52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="R52" s="3">
         <v>2900</v>
       </c>
       <c r="S52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3300</v>
-      </c>
-      <c r="U52" s="3">
-        <v>3400</v>
       </c>
       <c r="V52" s="3">
         <v>3400</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <v>300</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
       <c r="Z52" s="3">
         <v>0</v>
       </c>
@@ -4211,11 +4331,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>500</v>
       </c>
       <c r="F54" s="3">
         <v>500</v>
       </c>
       <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3900</v>
       </c>
       <c r="Q54" s="3">
         <v>3900</v>
       </c>
       <c r="R54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S54" s="3">
         <v>4000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>400</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,28 +4580,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -4489,19 +4620,19 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4513,69 +4644,72 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4600</v>
       </c>
       <c r="J58" s="3">
         <v>4600</v>
       </c>
       <c r="K58" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="L58" s="3">
         <v>4100</v>
       </c>
       <c r="M58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3600</v>
       </c>
       <c r="P58" s="3">
         <v>3600</v>
@@ -4587,31 +4721,31 @@
         <v>3600</v>
       </c>
       <c r="S58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T58" s="3">
         <v>4700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>800</v>
       </c>
-      <c r="Z58" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
+      <c r="AA58" s="3">
+        <v>100</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
@@ -4622,34 +4756,37 @@
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -4661,7 +4798,7 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
@@ -4670,10 +4807,10 @@
         <v>1000</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
         <v>1100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1500</v>
       </c>
       <c r="T59" s="3">
         <v>1500</v>
@@ -4682,19 +4819,19 @@
         <v>1500</v>
       </c>
       <c r="V59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
-        <v>100</v>
-      </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4703,18 +4840,21 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>1900</v>
@@ -4723,31 +4863,31 @@
         <v>1900</v>
       </c>
       <c r="G60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4500</v>
       </c>
       <c r="L60" s="3">
         <v>4500</v>
       </c>
       <c r="M60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>4800</v>
       </c>
       <c r="P60" s="3">
         <v>4800</v>
@@ -4759,43 +4899,46 @@
         <v>4800</v>
       </c>
       <c r="S60" s="3">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="T60" s="3">
         <v>6300</v>
       </c>
       <c r="U60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V60" s="3">
         <v>6900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
-        <v>100</v>
-      </c>
       <c r="AA60" s="3">
         <v>100</v>
       </c>
       <c r="AB60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC60" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4821,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
@@ -4854,34 +4997,37 @@
         <v>500</v>
       </c>
       <c r="V61" s="3">
+        <v>500</v>
+      </c>
+      <c r="W61" s="3">
         <v>1800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>1600</v>
       </c>
       <c r="Z61" s="3">
         <v>1600</v>
       </c>
       <c r="AA61" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="AB61" s="3">
         <v>100</v>
       </c>
       <c r="AC61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD61" s="3">
         <v>400</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4906,14 +5052,14 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -4921,11 +5067,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -4933,21 +5079,21 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
         <v>500</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,13 +5379,16 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>1900</v>
@@ -5239,31 +5397,31 @@
         <v>1900</v>
       </c>
       <c r="G66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>5000</v>
       </c>
       <c r="L66" s="3">
         <v>5000</v>
       </c>
       <c r="M66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>5300</v>
       </c>
       <c r="P66" s="3">
         <v>5300</v>
@@ -5275,43 +5433,46 @@
         <v>5300</v>
       </c>
       <c r="S66" s="3">
-        <v>6800</v>
+        <v>5300</v>
       </c>
       <c r="T66" s="3">
         <v>6800</v>
       </c>
       <c r="U66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="V66" s="3">
         <v>7300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
-      <c r="AB66" s="3">
-        <v>100</v>
-      </c>
       <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD66" s="3">
         <v>500</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,49 +5857,52 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-6600</v>
       </c>
       <c r="Q72" s="3">
         <v>-6600</v>
@@ -5737,43 +5911,46 @@
         <v>-6600</v>
       </c>
       <c r="S72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-7000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-800</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,46 +6213,49 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1400</v>
       </c>
       <c r="F76" s="3">
         <v>-1400</v>
       </c>
       <c r="G76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1500</v>
       </c>
       <c r="N76" s="3">
         <v>-1500</v>
       </c>
       <c r="O76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="P76" s="3">
         <v>-1400</v>
@@ -6081,43 +6267,46 @@
         <v>-1400</v>
       </c>
       <c r="S76" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="T76" s="3">
         <v>-1800</v>
       </c>
       <c r="U76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="V76" s="3">
         <v>-2200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>300</v>
       </c>
       <c r="AB76" s="3">
         <v>300</v>
       </c>
       <c r="AC76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,19 +6609,20 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -6435,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -6471,14 +6670,14 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>3000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>300</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>10500</v>
+      </c>
+      <c r="T89" s="3">
+        <v>300</v>
+      </c>
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="V89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="AA89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>10500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>600</v>
-      </c>
-      <c r="U89" s="3">
-        <v>1600</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-200</v>
       </c>
       <c r="AC89" s="3">
         <v>-200</v>
       </c>
       <c r="AD89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7110,14 +7331,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7128,11 +7349,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7356,24 +7586,24 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-800</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -7389,8 +7619,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8008,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>600</v>
+      </c>
+      <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
+        <v>500</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W100" s="3">
+        <v>18100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="V100" s="3">
-        <v>18100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>1500</v>
-      </c>
-      <c r="X100" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>200</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,40 +8186,43 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7985,42 +8237,45 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>-400</v>
       </c>
       <c r="W102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>200</v>
       </c>
     </row>
